--- a/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>59139</v>
+        <v>59140</v>
       </c>
       <c r="D156" t="n">
-        <v>109966636</v>
+        <v>109968074</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18528</v>
+        <v>18527</v>
       </c>
       <c r="D266" t="n">
-        <v>33748403</v>
+        <v>33746965</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>76610</v>
+        <v>76611</v>
       </c>
       <c r="D267" t="n">
-        <v>184917827</v>
+        <v>184922043</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>111860</v>
+        <v>111861</v>
       </c>
       <c r="D321" t="n">
-        <v>215964224</v>
+        <v>215964942</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>41657</v>
+        <v>41656</v>
       </c>
       <c r="D322" t="n">
-        <v>79916118</v>
+        <v>79915400</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
